--- a/biology/Virologie/Virus_du_flétrissement_de_la_fève/Virus_du_flétrissement_de_la_fève.xlsx
+++ b/biology/Virologie/Virus_du_flétrissement_de_la_fève/Virus_du_flétrissement_de_la_fève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_du_fl%C3%A9trissement_de_la_f%C3%A8ve</t>
+          <t>Virus_du_flétrissement_de_la_fève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus du flétrissement de la fève  (BBWV, Broad bean wilt virus) est une espèce de phytovirus classée dans le genre Fabavirus (dont c'est l'espèce type), famille des Secoviridae, à répartition quasi-cosmopolite. Ce virus phytopathogène affecte une vaste gamme d'espèces de plantes pour la plupart dicotylédones. Il doit son nom au fait qu'il a été isolé en premier en 1947 sur la fève (Vicia faba) en Australie[3].
-C'est un virus à ARN simple brin à polarité positive, classé dans le groupe IV de la classification Baltimore. Les virions isométriques mesurent environ 25 nm de diamètre[1]. 
-Il est transmis par des pucerons, principalement Aphis gossypii et Myzus persicae, avec un taux d'infection de 60  à 90% sur un mode non persistant[4].
-À la suite d'études sérologiques et moléculaires, les isolats du BBWV ont été classés en deux groupes, appelés Broad bean wilt virus 1 (BBWV1) et Broad bean wilt virus 2 (BBWV2). Bien que la structure et les fonctions du génome soient très similaires dans les deux cas, les séquences de nucléotides montrent de grandes différences[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus du flétrissement de la fève  (BBWV, Broad bean wilt virus) est une espèce de phytovirus classée dans le genre Fabavirus (dont c'est l'espèce type), famille des Secoviridae, à répartition quasi-cosmopolite. Ce virus phytopathogène affecte une vaste gamme d'espèces de plantes pour la plupart dicotylédones. Il doit son nom au fait qu'il a été isolé en premier en 1947 sur la fève (Vicia faba) en Australie.
+C'est un virus à ARN simple brin à polarité positive, classé dans le groupe IV de la classification Baltimore. Les virions isométriques mesurent environ 25 nm de diamètre. 
+Il est transmis par des pucerons, principalement Aphis gossypii et Myzus persicae, avec un taux d'infection de 60  à 90% sur un mode non persistant.
+À la suite d'études sérologiques et moléculaires, les isolats du BBWV ont été classés en deux groupes, appelés Broad bean wilt virus 1 (BBWV1) et Broad bean wilt virus 2 (BBWV2). Bien que la structure et les fonctions du génome soient très similaires dans les deux cas, les séquences de nucléotides montrent de grandes différences.
 </t>
         </is>
       </c>
